--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -582,21 +582,18 @@
         <v>45</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -701,7 +698,7 @@
       <c r="AV2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="AX2" s="5" t="s">
@@ -710,9 +707,7 @@
       <c r="AY2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
@@ -723,7 +718,6 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -779,11 +773,9 @@
         <v>20.0</v>
       </c>
       <c r="AU3" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="AV3" s="4">
         <v>14.0</v>
       </c>
+      <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -798,7 +790,6 @@
       <c r="BH3" s="4"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -858,13 +849,13 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
+      <c r="AX4" s="5">
+        <v>110.0</v>
+      </c>
       <c r="AY4" s="5">
-        <v>110.0</v>
-      </c>
-      <c r="AZ4" s="5">
         <v>16.0</v>
       </c>
+      <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
@@ -875,7 +866,6 @@
       <c r="BH4" s="4"/>
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
   <si>
     <t>None</t>
@@ -596,6 +599,9 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -687,27 +693,19 @@
       </c>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
